--- a/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
+++ b/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1617,4 +1618,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
+++ b/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1716,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>21</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
+++ b/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1759,7 +1760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,17 +1771,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1790,14 +1811,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1806,14 +1849,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1822,13 +1887,171 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
+++ b/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1966,7 +1967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,17 +1978,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1997,14 +2018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2013,14 +2056,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2029,14 +2094,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -2045,13 +2216,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
+++ b/数据整理/stocks/A股/科创板/688366-昊海生科.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -566,6 +583,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -941,7 +1280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
